--- a/biology/Botanique/Spergula_arvensis/Spergula_arvensis.xlsx
+++ b/biology/Botanique/Spergula_arvensis/Spergula_arvensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Spergule des champs
-Spergula arvensis, la Spergule des champs, Spargoute des champs[2], Espargoutte des champs, Spargelle, est une espèce de plantes herbacées du genre Spergula et de la famille des Caryophyllacées.
+Spergula arvensis, la Spergule des champs, Spargoute des champs, Espargoutte des champs, Spargelle, est une espèce de plantes herbacées du genre Spergula et de la famille des Caryophyllacées.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Fleurs à petits pétales blancs, disposées en cymes bipares irrégulières.
 Le fruit est une capsule ovoïde à 5 dents et aux nombreuses graines noires dont le rebord est marqué de ponctuations.
@@ -545,7 +559,9 @@
           <t>Distribution et écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Espèce autrefois cultivée sur les terres maigres, sous le nom de fourrage de disette.
 Plante annuelle répandue en France continentale. Peu fréquente (en régression probable à la suite des méthodes agriculturales modernes).
@@ -579,17 +595,19 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (8 août 2014)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (8 août 2014) :
 sous-espèce Spergula arvensis subsp. arvensis
 sous-espèce Spergula arvensis subsp. chieusseana
 sous-espèce Spergula arvensis subsp. gracilis
 sous-espèce Spergula arvensis subsp. nana
-Selon The Plant List            (8 août 2014)[4] :
+Selon The Plant List            (8 août 2014) :
 sous-espèce Spergula arvensis subsp. chieusseana (Pomel) Briq.
 sous-espèce Spergula arvensis subsp. gracilis (E.Petit) Briq.
-Selon Tropicos                                           (8 août 2014)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (8 août 2014) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Spergula arvensis subsp. arvensis
 sous-espèce Spergula arvensis subsp. chieusseana (Pomel) Briq.
 sous-espèce Spergula arvensis subsp. gracilis (E. Petit) Briq.
